--- a/Modelos em Python/14 dias a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros validação.xlsx
+++ b/Modelos em Python/14 dias a frente(7, 1, 7) (2, 1, 1, 12) 18 a 21h Erros validação.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.51205776377861</v>
+        <v>39.55905110707938</v>
       </c>
       <c r="C11" t="n">
-        <v>114.8827651762495</v>
+        <v>115.030357035157</v>
       </c>
       <c r="D11" t="n">
-        <v>125.5162797904691</v>
+        <v>125.6524492630675</v>
       </c>
     </row>
     <row r="12">
